--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H2">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I2">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J2">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.838240410581</v>
+        <v>13.10301133333333</v>
       </c>
       <c r="N2">
-        <v>12.838240410581</v>
+        <v>39.309034</v>
       </c>
       <c r="O2">
-        <v>0.2087316208052022</v>
+        <v>0.2036753411238414</v>
       </c>
       <c r="P2">
-        <v>0.2087316208052022</v>
+        <v>0.2126567538160978</v>
       </c>
       <c r="Q2">
-        <v>240.505580437458</v>
+        <v>302.1780833502507</v>
       </c>
       <c r="R2">
-        <v>240.505580437458</v>
+        <v>2719.602750152256</v>
       </c>
       <c r="S2">
-        <v>0.1423873684240433</v>
+        <v>0.1248559191978514</v>
       </c>
       <c r="T2">
-        <v>0.1423873684240433</v>
+        <v>0.1467920574012921</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H3">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I3">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J3">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.9753021752732</v>
+        <v>29.54200233333333</v>
       </c>
       <c r="N3">
-        <v>27.9753021752732</v>
+        <v>88.626007</v>
       </c>
       <c r="O3">
-        <v>0.454838823609147</v>
+        <v>0.4592056932299318</v>
       </c>
       <c r="P3">
-        <v>0.454838823609147</v>
+        <v>0.479455154057023</v>
       </c>
       <c r="Q3">
-        <v>524.0762029999152</v>
+        <v>681.2896223866986</v>
       </c>
       <c r="R3">
-        <v>524.0762029999152</v>
+        <v>6131.606601480287</v>
       </c>
       <c r="S3">
-        <v>0.3102706858738672</v>
+        <v>0.2814997073909324</v>
       </c>
       <c r="T3">
-        <v>0.3102706858738672</v>
+        <v>0.3309568458688482</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H4">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I4">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J4">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.973433680901</v>
+        <v>5.915846333333334</v>
       </c>
       <c r="N4">
-        <v>4.973433680901</v>
+        <v>17.747539</v>
       </c>
       <c r="O4">
-        <v>0.08086099340576754</v>
+        <v>0.0919568784095198</v>
       </c>
       <c r="P4">
-        <v>0.08086099340576754</v>
+        <v>0.09601187431786275</v>
       </c>
       <c r="Q4">
-        <v>93.16997625363571</v>
+        <v>136.4296390291307</v>
       </c>
       <c r="R4">
-        <v>93.16997625363571</v>
+        <v>1227.866751262176</v>
       </c>
       <c r="S4">
-        <v>0.05515975018440621</v>
+        <v>0.0563708916211148</v>
       </c>
       <c r="T4">
-        <v>0.05515975018440621</v>
+        <v>0.06627478466196013</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H5">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I5">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J5">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.59860182595396</v>
+        <v>7.620811666666666</v>
       </c>
       <c r="N5">
-        <v>7.59860182595396</v>
+        <v>22.862435</v>
       </c>
       <c r="O5">
-        <v>0.1235425123895901</v>
+        <v>0.1184591370916581</v>
       </c>
       <c r="P5">
-        <v>0.1235425123895901</v>
+        <v>0.123682795446755</v>
       </c>
       <c r="Q5">
-        <v>142.3486462489045</v>
+        <v>175.7490857958933</v>
       </c>
       <c r="R5">
-        <v>142.3486462489045</v>
+        <v>1581.74177216304</v>
       </c>
       <c r="S5">
-        <v>0.08427517191592698</v>
+        <v>0.07261715810737374</v>
       </c>
       <c r="T5">
-        <v>0.08427517191592698</v>
+        <v>0.08537538396016824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H6">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I6">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J6">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.12039000669167</v>
+        <v>8.1511595</v>
       </c>
       <c r="N6">
-        <v>8.12039000669167</v>
+        <v>16.302319</v>
       </c>
       <c r="O6">
-        <v>0.132026049790293</v>
+        <v>0.1267029501450486</v>
       </c>
       <c r="P6">
-        <v>0.132026049790293</v>
+        <v>0.08819342236226138</v>
       </c>
       <c r="Q6">
-        <v>152.1235815406833</v>
+        <v>187.979823273616</v>
       </c>
       <c r="R6">
-        <v>152.1235815406833</v>
+        <v>1127.878939641696</v>
       </c>
       <c r="S6">
-        <v>0.09006226138877861</v>
+        <v>0.07767073430759955</v>
       </c>
       <c r="T6">
-        <v>0.09006226138877861</v>
+        <v>0.06087788741952229</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H7">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I7">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J7">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.838240410581</v>
+        <v>13.10301133333333</v>
       </c>
       <c r="N7">
-        <v>12.838240410581</v>
+        <v>39.309034</v>
       </c>
       <c r="O7">
-        <v>0.2087316208052022</v>
+        <v>0.2036753411238414</v>
       </c>
       <c r="P7">
-        <v>0.2087316208052022</v>
+        <v>0.2126567538160978</v>
       </c>
       <c r="Q7">
-        <v>22.17886485808784</v>
+        <v>25.23657453481778</v>
       </c>
       <c r="R7">
-        <v>22.17886485808784</v>
+        <v>227.12917081336</v>
       </c>
       <c r="S7">
-        <v>0.01313063171354079</v>
+        <v>0.01042741312015523</v>
       </c>
       <c r="T7">
-        <v>0.01313063171354079</v>
+        <v>0.01225942218130058</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H8">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I8">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J8">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.9753021752732</v>
+        <v>29.54200233333333</v>
       </c>
       <c r="N8">
-        <v>27.9753021752732</v>
+        <v>88.626007</v>
       </c>
       <c r="O8">
-        <v>0.454838823609147</v>
+        <v>0.4592056932299318</v>
       </c>
       <c r="P8">
-        <v>0.454838823609147</v>
+        <v>0.479455154057023</v>
       </c>
       <c r="Q8">
-        <v>48.3290876682902</v>
+        <v>56.89829038736445</v>
       </c>
       <c r="R8">
-        <v>48.3290876682902</v>
+        <v>512.0846134862801</v>
       </c>
       <c r="S8">
-        <v>0.02861244050514747</v>
+        <v>0.02350960820300924</v>
       </c>
       <c r="T8">
-        <v>0.02861244050514747</v>
+        <v>0.02764004925829264</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H9">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I9">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J9">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.973433680901</v>
+        <v>5.915846333333334</v>
       </c>
       <c r="N9">
-        <v>4.973433680901</v>
+        <v>17.747539</v>
       </c>
       <c r="O9">
-        <v>0.08086099340576754</v>
+        <v>0.0919568784095198</v>
       </c>
       <c r="P9">
-        <v>0.08086099340576754</v>
+        <v>0.09601187431786275</v>
       </c>
       <c r="Q9">
-        <v>8.591918359657337</v>
+        <v>11.39399891595111</v>
       </c>
       <c r="R9">
-        <v>8.591918359657337</v>
+        <v>102.54599024356</v>
       </c>
       <c r="S9">
-        <v>0.005086703779266211</v>
+        <v>0.004707847082150799</v>
       </c>
       <c r="T9">
-        <v>0.005086703779266211</v>
+        <v>0.005534976343608368</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H10">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I10">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J10">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.59860182595396</v>
+        <v>7.620811666666666</v>
       </c>
       <c r="N10">
-        <v>7.59860182595396</v>
+        <v>22.862435</v>
       </c>
       <c r="O10">
-        <v>0.1235425123895901</v>
+        <v>0.1184591370916581</v>
       </c>
       <c r="P10">
-        <v>0.1235425123895901</v>
+        <v>0.123682795446755</v>
       </c>
       <c r="Q10">
-        <v>13.12706084467424</v>
+        <v>14.67778488082222</v>
       </c>
       <c r="R10">
-        <v>13.12706084467424</v>
+        <v>132.1000639274</v>
       </c>
       <c r="S10">
-        <v>0.00777166020603634</v>
+        <v>0.006064663269967307</v>
       </c>
       <c r="T10">
-        <v>0.00777166020603634</v>
+        <v>0.007130173759994779</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H11">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I11">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J11">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.12039000669167</v>
+        <v>8.1511595</v>
       </c>
       <c r="N11">
-        <v>8.12039000669167</v>
+        <v>16.302319</v>
       </c>
       <c r="O11">
-        <v>0.132026049790293</v>
+        <v>0.1267029501450486</v>
       </c>
       <c r="P11">
-        <v>0.132026049790293</v>
+        <v>0.08819342236226138</v>
       </c>
       <c r="Q11">
-        <v>14.02848262639997</v>
+        <v>15.69924187912667</v>
       </c>
       <c r="R11">
-        <v>14.02848262639997</v>
+        <v>94.19545127476002</v>
       </c>
       <c r="S11">
-        <v>0.008305332127937612</v>
+        <v>0.006486715561220196</v>
       </c>
       <c r="T11">
-        <v>0.008305332127937612</v>
+        <v>0.005084251400205811</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.00117606739432</v>
+        <v>12.632464</v>
       </c>
       <c r="H12">
-        <v>7.00117606739432</v>
+        <v>25.264928</v>
       </c>
       <c r="I12">
-        <v>0.254937993881049</v>
+        <v>0.3357893421386252</v>
       </c>
       <c r="J12">
-        <v>0.254937993881049</v>
+        <v>0.2520741677448068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.838240410581</v>
+        <v>13.10301133333333</v>
       </c>
       <c r="N12">
-        <v>12.838240410581</v>
+        <v>39.309034</v>
       </c>
       <c r="O12">
-        <v>0.2087316208052022</v>
+        <v>0.2036753411238414</v>
       </c>
       <c r="P12">
-        <v>0.2087316208052022</v>
+        <v>0.2126567538160978</v>
       </c>
       <c r="Q12">
-        <v>89.88278151001433</v>
+        <v>165.5233189599253</v>
       </c>
       <c r="R12">
-        <v>89.88278151001433</v>
+        <v>993.139913759552</v>
       </c>
       <c r="S12">
-        <v>0.05321362066761809</v>
+        <v>0.06839200880583479</v>
       </c>
       <c r="T12">
-        <v>0.05321362066761809</v>
+        <v>0.05360527423350513</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.00117606739432</v>
+        <v>12.632464</v>
       </c>
       <c r="H13">
-        <v>7.00117606739432</v>
+        <v>25.264928</v>
       </c>
       <c r="I13">
-        <v>0.254937993881049</v>
+        <v>0.3357893421386252</v>
       </c>
       <c r="J13">
-        <v>0.254937993881049</v>
+        <v>0.2520741677448068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.9753021752732</v>
+        <v>29.54200233333333</v>
       </c>
       <c r="N13">
-        <v>27.9753021752732</v>
+        <v>88.626007</v>
       </c>
       <c r="O13">
-        <v>0.454838823609147</v>
+        <v>0.4592056932299318</v>
       </c>
       <c r="P13">
-        <v>0.454838823609147</v>
+        <v>0.479455154057023</v>
       </c>
       <c r="Q13">
-        <v>195.860016067647</v>
+        <v>373.1882809637493</v>
       </c>
       <c r="R13">
-        <v>195.860016067647</v>
+        <v>2239.129685782496</v>
       </c>
       <c r="S13">
-        <v>0.1159556972301323</v>
+        <v>0.1541963776359901</v>
       </c>
       <c r="T13">
-        <v>0.1159556972301323</v>
+        <v>0.1208582589298822</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.00117606739432</v>
+        <v>12.632464</v>
       </c>
       <c r="H14">
-        <v>7.00117606739432</v>
+        <v>25.264928</v>
       </c>
       <c r="I14">
-        <v>0.254937993881049</v>
+        <v>0.3357893421386252</v>
       </c>
       <c r="J14">
-        <v>0.254937993881049</v>
+        <v>0.2520741677448068</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.973433680901</v>
+        <v>5.915846333333334</v>
       </c>
       <c r="N14">
-        <v>4.973433680901</v>
+        <v>17.747539</v>
       </c>
       <c r="O14">
-        <v>0.08086099340576754</v>
+        <v>0.0919568784095198</v>
       </c>
       <c r="P14">
-        <v>0.08086099340576754</v>
+        <v>0.09601187431786275</v>
       </c>
       <c r="Q14">
-        <v>34.81988485949692</v>
+        <v>74.73171583536534</v>
       </c>
       <c r="R14">
-        <v>34.81988485949692</v>
+        <v>448.3902950121919</v>
       </c>
       <c r="S14">
-        <v>0.02061453944209511</v>
+        <v>0.0308781397062542</v>
       </c>
       <c r="T14">
-        <v>0.02061453944209511</v>
+        <v>0.02420211331229425</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.00117606739432</v>
+        <v>12.632464</v>
       </c>
       <c r="H15">
-        <v>7.00117606739432</v>
+        <v>25.264928</v>
       </c>
       <c r="I15">
-        <v>0.254937993881049</v>
+        <v>0.3357893421386252</v>
       </c>
       <c r="J15">
-        <v>0.254937993881049</v>
+        <v>0.2520741677448068</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.59860182595396</v>
+        <v>7.620811666666666</v>
       </c>
       <c r="N15">
-        <v>7.59860182595396</v>
+        <v>22.862435</v>
       </c>
       <c r="O15">
-        <v>0.1235425123895901</v>
+        <v>0.1184591370916581</v>
       </c>
       <c r="P15">
-        <v>0.1235425123895901</v>
+        <v>0.123682795446755</v>
       </c>
       <c r="Q15">
-        <v>53.19914924952765</v>
+        <v>96.26962902994664</v>
       </c>
       <c r="R15">
-        <v>53.19914924952765</v>
+        <v>577.6177741796799</v>
       </c>
       <c r="S15">
-        <v>0.03149568026762674</v>
+        <v>0.03977731571431711</v>
       </c>
       <c r="T15">
-        <v>0.03149568026762674</v>
+        <v>0.03117723772659195</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.00117606739432</v>
+        <v>12.632464</v>
       </c>
       <c r="H16">
-        <v>7.00117606739432</v>
+        <v>25.264928</v>
       </c>
       <c r="I16">
-        <v>0.254937993881049</v>
+        <v>0.3357893421386252</v>
       </c>
       <c r="J16">
-        <v>0.254937993881049</v>
+        <v>0.2520741677448068</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.12039000669167</v>
+        <v>8.1511595</v>
       </c>
       <c r="N16">
-        <v>8.12039000669167</v>
+        <v>16.302319</v>
       </c>
       <c r="O16">
-        <v>0.132026049790293</v>
+        <v>0.1267029501450486</v>
       </c>
       <c r="P16">
-        <v>0.132026049790293</v>
+        <v>0.08819342236226138</v>
       </c>
       <c r="Q16">
-        <v>56.85228017275772</v>
+        <v>102.969228942008</v>
       </c>
       <c r="R16">
-        <v>56.85228017275772</v>
+        <v>411.876915768032</v>
       </c>
       <c r="S16">
-        <v>0.0336584562735768</v>
+        <v>0.04254550027622891</v>
       </c>
       <c r="T16">
-        <v>0.0336584562735768</v>
+        <v>0.02223128354253327</v>
       </c>
     </row>
   </sheetData>
